--- a/natmiOut/OldD7/LR-pairs_lrc2p/Ntn1-Adora2b.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Ntn1-Adora2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Adora2b</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.83864710975409</v>
+        <v>1.990837</v>
       </c>
       <c r="H2">
-        <v>1.83864710975409</v>
+        <v>5.972511000000001</v>
       </c>
       <c r="I2">
-        <v>0.1143799643812012</v>
+        <v>0.1122845585713437</v>
       </c>
       <c r="J2">
-        <v>0.1143799643812012</v>
+        <v>0.1122845585713437</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>3.62022995285358</v>
+        <v>0.9793220000000001</v>
       </c>
       <c r="N2">
-        <v>3.62022995285358</v>
+        <v>2.937966</v>
       </c>
       <c r="O2">
-        <v>0.4946036635382275</v>
+        <v>0.1062026806546398</v>
       </c>
       <c r="P2">
-        <v>0.4946036635382275</v>
+        <v>0.1062026806546398</v>
       </c>
       <c r="Q2">
-        <v>6.65632533945942</v>
+        <v>1.949670472514</v>
       </c>
       <c r="R2">
-        <v>6.65632533945942</v>
+        <v>17.54703425262601</v>
       </c>
       <c r="S2">
-        <v>0.05657274941831407</v>
+        <v>0.01192492111639961</v>
       </c>
       <c r="T2">
-        <v>0.05657274941831407</v>
+        <v>0.01192492111639961</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.83864710975409</v>
+        <v>1.990837</v>
       </c>
       <c r="H3">
-        <v>1.83864710975409</v>
+        <v>5.972511000000001</v>
       </c>
       <c r="I3">
-        <v>0.1143799643812012</v>
+        <v>0.1122845585713437</v>
       </c>
       <c r="J3">
-        <v>0.1143799643812012</v>
+        <v>0.1122845585713437</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.4303740524185</v>
+        <v>3.642436333333333</v>
       </c>
       <c r="N3">
-        <v>1.4303740524185</v>
+        <v>10.927309</v>
       </c>
       <c r="O3">
-        <v>0.195420803586955</v>
+        <v>0.3950044037751188</v>
       </c>
       <c r="P3">
-        <v>0.195420803586955</v>
+        <v>0.3950044037751188</v>
       </c>
       <c r="Q3">
-        <v>2.62995311734652</v>
+        <v>7.251497022544333</v>
       </c>
       <c r="R3">
-        <v>2.62995311734652</v>
+        <v>65.26347320289901</v>
       </c>
       <c r="S3">
-        <v>0.02235222455362162</v>
+        <v>0.04435289511162604</v>
       </c>
       <c r="T3">
-        <v>0.02235222455362162</v>
+        <v>0.04435289511162604</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.83864710975409</v>
+        <v>1.990837</v>
       </c>
       <c r="H4">
-        <v>1.83864710975409</v>
+        <v>5.972511000000001</v>
       </c>
       <c r="I4">
-        <v>0.1143799643812012</v>
+        <v>0.1122845585713437</v>
       </c>
       <c r="J4">
-        <v>0.1143799643812012</v>
+        <v>0.1122845585713437</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.26885239938873</v>
+        <v>1.800188</v>
       </c>
       <c r="N4">
-        <v>2.26885239938873</v>
+        <v>5.400564</v>
       </c>
       <c r="O4">
-        <v>0.3099755328748174</v>
+        <v>0.1952215831792961</v>
       </c>
       <c r="P4">
-        <v>0.3099755328748174</v>
+        <v>0.1952215831792961</v>
       </c>
       <c r="Q4">
-        <v>4.171618906594721</v>
+        <v>3.583880877356</v>
       </c>
       <c r="R4">
-        <v>4.171618906594721</v>
+        <v>32.254927896204</v>
       </c>
       <c r="S4">
-        <v>0.03545499040926547</v>
+        <v>0.02192036929088613</v>
       </c>
       <c r="T4">
-        <v>0.03545499040926547</v>
+        <v>0.02192036929088613</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.7505011819827</v>
+        <v>1.990837</v>
       </c>
       <c r="H5">
-        <v>10.7505011819827</v>
+        <v>5.972511000000001</v>
       </c>
       <c r="I5">
-        <v>0.668775392380597</v>
+        <v>0.1122845585713437</v>
       </c>
       <c r="J5">
-        <v>0.668775392380597</v>
+        <v>0.1122845585713437</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.62022995285358</v>
+        <v>2.799308666666667</v>
       </c>
       <c r="N5">
-        <v>3.62022995285358</v>
+        <v>8.397926</v>
       </c>
       <c r="O5">
-        <v>0.4946036635382275</v>
+        <v>0.3035713323909454</v>
       </c>
       <c r="P5">
-        <v>0.4946036635382275</v>
+        <v>0.3035713323909454</v>
       </c>
       <c r="Q5">
-        <v>38.91928638720159</v>
+        <v>5.572967268020667</v>
       </c>
       <c r="R5">
-        <v>38.91928638720159</v>
+        <v>50.15670541218601</v>
       </c>
       <c r="S5">
-        <v>0.3307787591556589</v>
+        <v>0.03408637305243196</v>
       </c>
       <c r="T5">
-        <v>0.3307787591556589</v>
+        <v>0.03408637305243196</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.7505011819827</v>
+        <v>11.42765333333333</v>
       </c>
       <c r="H6">
-        <v>10.7505011819827</v>
+        <v>34.28296</v>
       </c>
       <c r="I6">
-        <v>0.668775392380597</v>
+        <v>0.6445274073365515</v>
       </c>
       <c r="J6">
-        <v>0.668775392380597</v>
+        <v>0.6445274073365515</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.4303740524185</v>
+        <v>0.9793220000000001</v>
       </c>
       <c r="N6">
-        <v>1.4303740524185</v>
+        <v>2.937966</v>
       </c>
       <c r="O6">
-        <v>0.195420803586955</v>
+        <v>0.1062026806546398</v>
       </c>
       <c r="P6">
-        <v>0.195420803586955</v>
+        <v>0.1062026806546398</v>
       </c>
       <c r="Q6">
-        <v>15.37723794120247</v>
+        <v>11.19135231770667</v>
       </c>
       <c r="R6">
-        <v>15.37723794120247</v>
+        <v>100.72217085936</v>
       </c>
       <c r="S6">
-        <v>0.1306926245981974</v>
+        <v>0.0684505384145267</v>
       </c>
       <c r="T6">
-        <v>0.1306926245981974</v>
+        <v>0.0684505384145267</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,185 +832,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.7505011819827</v>
+        <v>11.42765333333333</v>
       </c>
       <c r="H7">
-        <v>10.7505011819827</v>
+        <v>34.28296</v>
       </c>
       <c r="I7">
-        <v>0.668775392380597</v>
+        <v>0.6445274073365515</v>
       </c>
       <c r="J7">
-        <v>0.668775392380597</v>
+        <v>0.6445274073365515</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.26885239938873</v>
+        <v>3.642436333333333</v>
       </c>
       <c r="N7">
-        <v>2.26885239938873</v>
+        <v>10.927309</v>
       </c>
       <c r="O7">
-        <v>0.3099755328748174</v>
+        <v>0.3950044037751188</v>
       </c>
       <c r="P7">
-        <v>0.3099755328748174</v>
+        <v>0.3950044037751188</v>
       </c>
       <c r="Q7">
-        <v>24.39130040137283</v>
+        <v>41.62449970607111</v>
       </c>
       <c r="R7">
-        <v>24.39130040137283</v>
+        <v>374.62049735464</v>
       </c>
       <c r="S7">
-        <v>0.2073040086267407</v>
+        <v>0.2545911642516976</v>
       </c>
       <c r="T7">
-        <v>0.2073040086267407</v>
+        <v>0.2545911642516976</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.48575713161443</v>
+        <v>11.42765333333333</v>
       </c>
       <c r="H8">
-        <v>3.48575713161443</v>
+        <v>34.28296</v>
       </c>
       <c r="I8">
-        <v>0.2168446432382017</v>
+        <v>0.6445274073365515</v>
       </c>
       <c r="J8">
-        <v>0.2168446432382017</v>
+        <v>0.6445274073365515</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.62022995285358</v>
+        <v>1.800188</v>
       </c>
       <c r="N8">
-        <v>3.62022995285358</v>
+        <v>5.400564</v>
       </c>
       <c r="O8">
-        <v>0.4946036635382275</v>
+        <v>0.1952215831792961</v>
       </c>
       <c r="P8">
-        <v>0.4946036635382275</v>
+        <v>0.1952215831792961</v>
       </c>
       <c r="Q8">
-        <v>12.61924237624354</v>
+        <v>20.57192439882667</v>
       </c>
       <c r="R8">
-        <v>12.61924237624354</v>
+        <v>185.14731958944</v>
       </c>
       <c r="S8">
-        <v>0.1072521549642545</v>
+        <v>0.1258256608626886</v>
       </c>
       <c r="T8">
-        <v>0.1072521549642545</v>
+        <v>0.1258256608626886</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.48575713161443</v>
+        <v>11.42765333333333</v>
       </c>
       <c r="H9">
-        <v>3.48575713161443</v>
+        <v>34.28296</v>
       </c>
       <c r="I9">
-        <v>0.2168446432382017</v>
+        <v>0.6445274073365515</v>
       </c>
       <c r="J9">
-        <v>0.2168446432382017</v>
+        <v>0.6445274073365515</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.4303740524185</v>
+        <v>2.799308666666667</v>
       </c>
       <c r="N9">
-        <v>1.4303740524185</v>
+        <v>8.397926</v>
       </c>
       <c r="O9">
-        <v>0.195420803586955</v>
+        <v>0.3035713323909454</v>
       </c>
       <c r="P9">
-        <v>0.195420803586955</v>
+        <v>0.3035713323909454</v>
       </c>
       <c r="Q9">
-        <v>4.985936554094019</v>
+        <v>31.98952901566222</v>
       </c>
       <c r="R9">
-        <v>4.985936554094019</v>
+        <v>287.90576114096</v>
       </c>
       <c r="S9">
-        <v>0.04237595443513595</v>
+        <v>0.1956600438076385</v>
       </c>
       <c r="T9">
-        <v>0.04237595443513595</v>
+        <v>0.1956600438076385</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.2266433333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.67993</v>
+      </c>
+      <c r="I10">
+        <v>0.01278283789002879</v>
+      </c>
+      <c r="J10">
+        <v>0.01278283789002879</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.9793220000000001</v>
+      </c>
+      <c r="N10">
+        <v>2.937966</v>
+      </c>
+      <c r="O10">
+        <v>0.1062026806546398</v>
+      </c>
+      <c r="P10">
+        <v>0.1062026806546398</v>
+      </c>
+      <c r="Q10">
+        <v>0.2219568024866667</v>
+      </c>
+      <c r="R10">
+        <v>1.99761122238</v>
+      </c>
+      <c r="S10">
+        <v>0.001357571650294757</v>
+      </c>
+      <c r="T10">
+        <v>0.001357571650294757</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.2266433333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.67993</v>
+      </c>
+      <c r="I11">
+        <v>0.01278283789002879</v>
+      </c>
+      <c r="J11">
+        <v>0.01278283789002879</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.642436333333333</v>
+      </c>
+      <c r="N11">
+        <v>10.927309</v>
+      </c>
+      <c r="O11">
+        <v>0.3950044037751188</v>
+      </c>
+      <c r="P11">
+        <v>0.3950044037751188</v>
+      </c>
+      <c r="Q11">
+        <v>0.825533912041111</v>
+      </c>
+      <c r="R11">
+        <v>7.429805208369999</v>
+      </c>
+      <c r="S11">
+        <v>0.00504927725930482</v>
+      </c>
+      <c r="T11">
+        <v>0.00504927725930482</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.2266433333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.67993</v>
+      </c>
+      <c r="I12">
+        <v>0.01278283789002879</v>
+      </c>
+      <c r="J12">
+        <v>0.01278283789002879</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.800188</v>
+      </c>
+      <c r="N12">
+        <v>5.400564</v>
+      </c>
+      <c r="O12">
+        <v>0.1952215831792961</v>
+      </c>
+      <c r="P12">
+        <v>0.1952215831792961</v>
+      </c>
+      <c r="Q12">
+        <v>0.4080006089466667</v>
+      </c>
+      <c r="R12">
+        <v>3.67200548052</v>
+      </c>
+      <c r="S12">
+        <v>0.002495485850415714</v>
+      </c>
+      <c r="T12">
+        <v>0.002495485850415714</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.2266433333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.67993</v>
+      </c>
+      <c r="I13">
+        <v>0.01278283789002879</v>
+      </c>
+      <c r="J13">
+        <v>0.01278283789002879</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.799308666666667</v>
+      </c>
+      <c r="N13">
+        <v>8.397926</v>
+      </c>
+      <c r="O13">
+        <v>0.3035713323909454</v>
+      </c>
+      <c r="P13">
+        <v>0.3035713323909454</v>
+      </c>
+      <c r="Q13">
+        <v>0.6344446472422223</v>
+      </c>
+      <c r="R13">
+        <v>5.71000182518</v>
+      </c>
+      <c r="S13">
+        <v>0.0038805031300135</v>
+      </c>
+      <c r="T13">
+        <v>0.0038805031300135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.085149333333333</v>
+      </c>
+      <c r="H14">
+        <v>12.255448</v>
+      </c>
+      <c r="I14">
+        <v>0.230405196202076</v>
+      </c>
+      <c r="J14">
+        <v>0.230405196202076</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.9793220000000001</v>
+      </c>
+      <c r="N14">
+        <v>2.937966</v>
+      </c>
+      <c r="O14">
+        <v>0.1062026806546398</v>
+      </c>
+      <c r="P14">
+        <v>0.1062026806546398</v>
+      </c>
+      <c r="Q14">
+        <v>4.000676615418667</v>
+      </c>
+      <c r="R14">
+        <v>36.006089538768</v>
+      </c>
+      <c r="S14">
+        <v>0.0244696494734187</v>
+      </c>
+      <c r="T14">
+        <v>0.0244696494734187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.085149333333333</v>
+      </c>
+      <c r="H15">
+        <v>12.255448</v>
+      </c>
+      <c r="I15">
+        <v>0.230405196202076</v>
+      </c>
+      <c r="J15">
+        <v>0.230405196202076</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.642436333333333</v>
+      </c>
+      <c r="N15">
+        <v>10.927309</v>
+      </c>
+      <c r="O15">
+        <v>0.3950044037751188</v>
+      </c>
+      <c r="P15">
+        <v>0.3950044037751188</v>
+      </c>
+      <c r="Q15">
+        <v>14.87989635882577</v>
+      </c>
+      <c r="R15">
+        <v>133.919067229432</v>
+      </c>
+      <c r="S15">
+        <v>0.0910110671524903</v>
+      </c>
+      <c r="T15">
+        <v>0.09101106715249031</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>3.48575713161443</v>
-      </c>
-      <c r="H10">
-        <v>3.48575713161443</v>
-      </c>
-      <c r="I10">
-        <v>0.2168446432382017</v>
-      </c>
-      <c r="J10">
-        <v>0.2168446432382017</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>2.26885239938873</v>
-      </c>
-      <c r="N10">
-        <v>2.26885239938873</v>
-      </c>
-      <c r="O10">
-        <v>0.3099755328748174</v>
-      </c>
-      <c r="P10">
-        <v>0.3099755328748174</v>
-      </c>
-      <c r="Q10">
-        <v>7.908668431749777</v>
-      </c>
-      <c r="R10">
-        <v>7.908668431749777</v>
-      </c>
-      <c r="S10">
-        <v>0.06721653383881127</v>
-      </c>
-      <c r="T10">
-        <v>0.06721653383881127</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.085149333333333</v>
+      </c>
+      <c r="H16">
+        <v>12.255448</v>
+      </c>
+      <c r="I16">
+        <v>0.230405196202076</v>
+      </c>
+      <c r="J16">
+        <v>0.230405196202076</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.800188</v>
+      </c>
+      <c r="N16">
+        <v>5.400564</v>
+      </c>
+      <c r="O16">
+        <v>0.1952215831792961</v>
+      </c>
+      <c r="P16">
+        <v>0.1952215831792961</v>
+      </c>
+      <c r="Q16">
+        <v>7.354036808074667</v>
+      </c>
+      <c r="R16">
+        <v>66.18633127267199</v>
+      </c>
+      <c r="S16">
+        <v>0.04498006717530562</v>
+      </c>
+      <c r="T16">
+        <v>0.04498006717530562</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4.085149333333333</v>
+      </c>
+      <c r="H17">
+        <v>12.255448</v>
+      </c>
+      <c r="I17">
+        <v>0.230405196202076</v>
+      </c>
+      <c r="J17">
+        <v>0.230405196202076</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.799308666666667</v>
+      </c>
+      <c r="N17">
+        <v>8.397926</v>
+      </c>
+      <c r="O17">
+        <v>0.3035713323909454</v>
+      </c>
+      <c r="P17">
+        <v>0.3035713323909454</v>
+      </c>
+      <c r="Q17">
+        <v>11.43559393342755</v>
+      </c>
+      <c r="R17">
+        <v>102.920345400848</v>
+      </c>
+      <c r="S17">
+        <v>0.0699444124008614</v>
+      </c>
+      <c r="T17">
+        <v>0.0699444124008614</v>
       </c>
     </row>
   </sheetData>
